--- a/VersionRecords/Version 5.2.0 20161229/版本Bug和特性计划及评审表v5.2.0_极光组 .xlsx
+++ b/VersionRecords/Version 5.2.0 20161229/版本Bug和特性计划及评审表v5.2.0_极光组 .xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" tabRatio="813"/>
   </bookViews>
@@ -300,10 +295,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>拉卡拉退保证金的定时器放到同步还款定时器中</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>提交贷款申请到拉卡拉</t>
   </si>
   <si>
@@ -665,12 +656,16 @@
   </si>
   <si>
     <t>能</t>
+  </si>
+  <si>
+    <t>公司退回租金宝保证金给房东，生成账单并退款</t>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="35">
     <font>
       <sz val="11"/>
@@ -1519,7 +1514,7 @@
     <cellStyle name="常规 7" xfId="12"/>
     <cellStyle name="常规 9" xfId="3"/>
     <cellStyle name="甘特图" xfId="2"/>
-    <cellStyle name="着色 4" xfId="8" builtinId="41"/>
+    <cellStyle name="强调文字颜色 4" xfId="8" builtinId="41"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1549,6 +1544,74 @@
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1568,7 +1631,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1888,11 +1951,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2028,13 +2091,13 @@
         <v>76</v>
       </c>
       <c r="O2" s="47" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P2" s="97">
         <v>42732</v>
       </c>
       <c r="Q2" s="47" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="R2" s="47"/>
       <c r="S2" s="44"/>
@@ -2084,13 +2147,13 @@
         <v>76</v>
       </c>
       <c r="O3" s="44" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P3" s="97">
         <v>42732</v>
       </c>
       <c r="Q3" s="47" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="R3" s="83"/>
       <c r="S3" s="83"/>
@@ -2140,13 +2203,13 @@
         <v>76</v>
       </c>
       <c r="O4" s="44" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P4" s="97">
         <v>42732</v>
       </c>
       <c r="Q4" s="47" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="R4" s="44"/>
       <c r="S4" s="44"/>
@@ -2164,7 +2227,7 @@
         <v>68</v>
       </c>
       <c r="D5" s="50" t="s">
-        <v>81</v>
+        <v>180</v>
       </c>
       <c r="E5" s="38" t="s">
         <v>74</v>
@@ -2195,13 +2258,13 @@
         <v>76</v>
       </c>
       <c r="O5" s="44" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P5" s="97">
         <v>42732</v>
       </c>
       <c r="Q5" s="47" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="R5" s="44"/>
       <c r="S5" s="44"/>
@@ -2219,13 +2282,13 @@
         <v>68</v>
       </c>
       <c r="D6" s="50" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E6" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="F6" s="38" t="s">
         <v>175</v>
-      </c>
-      <c r="F6" s="38" t="s">
-        <v>176</v>
       </c>
       <c r="G6" s="38" t="s">
         <v>69</v>
@@ -2241,7 +2304,7 @@
       </c>
       <c r="K6" s="38"/>
       <c r="L6" s="47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M6" s="38" t="s">
         <v>70</v>
@@ -2250,13 +2313,13 @@
         <v>76</v>
       </c>
       <c r="O6" s="44" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P6" s="97">
         <v>42732</v>
       </c>
       <c r="Q6" s="84" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="R6" s="44"/>
       <c r="S6" s="44"/>
@@ -5947,7 +6010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6034,40 +6097,40 @@
     <row r="2" spans="1:18" ht="30" customHeight="1">
       <c r="A2" s="62"/>
       <c r="B2" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="98" t="s">
         <v>70</v>
       </c>
       <c r="E2" s="99" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F2" s="100" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="99" t="s">
         <v>92</v>
       </c>
-      <c r="G2" s="99" t="s">
-        <v>93</v>
-      </c>
       <c r="H2" s="104" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I2" s="104" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J2" s="99" t="s">
+        <v>95</v>
+      </c>
+      <c r="K2" s="99" t="s">
         <v>96</v>
-      </c>
-      <c r="K2" s="99" t="s">
-        <v>97</v>
       </c>
       <c r="L2" s="99"/>
       <c r="M2" s="99"/>
       <c r="N2" s="99" t="s">
+        <v>97</v>
+      </c>
+      <c r="O2" s="99" t="s">
         <v>98</v>
-      </c>
-      <c r="O2" s="99" t="s">
-        <v>99</v>
       </c>
       <c r="P2" s="99"/>
       <c r="Q2" s="15"/>
@@ -6076,40 +6139,40 @@
     <row r="3" spans="1:18" ht="30" customHeight="1">
       <c r="A3" s="62"/>
       <c r="B3" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C3" s="17"/>
       <c r="D3" s="98" t="s">
         <v>70</v>
       </c>
       <c r="E3" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F3" s="100" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" s="99" t="s">
         <v>92</v>
       </c>
-      <c r="G3" s="99" t="s">
-        <v>93</v>
-      </c>
       <c r="H3" s="104" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I3" s="104" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J3" s="99" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K3" s="99" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L3" s="99"/>
       <c r="M3" s="99"/>
       <c r="N3" s="99" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O3" s="99" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P3" s="99"/>
       <c r="Q3" s="15"/>
@@ -6118,40 +6181,40 @@
     <row r="4" spans="1:18" ht="30" customHeight="1">
       <c r="A4" s="62"/>
       <c r="B4" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="98" t="s">
         <v>70</v>
       </c>
       <c r="E4" s="99" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F4" s="100" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="99" t="s">
         <v>92</v>
       </c>
-      <c r="G4" s="99" t="s">
-        <v>93</v>
-      </c>
       <c r="H4" s="104" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I4" s="104" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J4" s="99" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K4" s="99" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L4" s="99"/>
       <c r="M4" s="99"/>
       <c r="N4" s="99" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O4" s="99" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P4" s="99"/>
       <c r="Q4" s="15"/>
@@ -6159,40 +6222,40 @@
     </row>
     <row r="5" spans="1:18" ht="16.5">
       <c r="B5" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="98" t="s">
         <v>70</v>
       </c>
       <c r="E5" s="99" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F5" s="100" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" s="99" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="99" t="s">
-        <v>93</v>
-      </c>
       <c r="H5" s="104" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I5" s="104" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J5" s="99" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K5" s="99" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L5" s="99"/>
       <c r="M5" s="99"/>
       <c r="N5" s="99" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O5" s="99" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P5" s="99"/>
       <c r="Q5" s="15"/>
@@ -6200,40 +6263,40 @@
     </row>
     <row r="6" spans="1:18" ht="33">
       <c r="B6" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="98" t="s">
         <v>70</v>
       </c>
       <c r="E6" s="99" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F6" s="100" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" s="99" t="s">
         <v>92</v>
       </c>
-      <c r="G6" s="99" t="s">
-        <v>93</v>
-      </c>
       <c r="H6" s="104" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I6" s="104" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J6" s="99" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K6" s="99" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L6" s="99"/>
       <c r="M6" s="99"/>
       <c r="N6" s="99" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O6" s="99" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P6" s="99"/>
       <c r="Q6" s="15"/>
@@ -6241,40 +6304,40 @@
     </row>
     <row r="7" spans="1:18" ht="33">
       <c r="B7" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="98" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E7" s="99" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F7" s="100" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" s="99" t="s">
         <v>92</v>
       </c>
-      <c r="G7" s="99" t="s">
-        <v>93</v>
-      </c>
       <c r="H7" s="104" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I7" s="104" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J7" s="99" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K7" s="99" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L7" s="99"/>
       <c r="M7" s="99"/>
       <c r="N7" s="99" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O7" s="99" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P7" s="99"/>
       <c r="Q7" s="15"/>
@@ -6282,40 +6345,40 @@
     </row>
     <row r="8" spans="1:18" ht="33">
       <c r="B8" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="98" t="s">
         <v>70</v>
       </c>
       <c r="E8" s="99" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F8" s="100" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" s="99" t="s">
         <v>92</v>
       </c>
-      <c r="G8" s="99" t="s">
-        <v>93</v>
-      </c>
       <c r="H8" s="104" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I8" s="104" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J8" s="99" t="s">
+        <v>110</v>
+      </c>
+      <c r="K8" s="99" t="s">
         <v>111</v>
-      </c>
-      <c r="K8" s="99" t="s">
-        <v>112</v>
       </c>
       <c r="L8" s="99"/>
       <c r="M8" s="99"/>
       <c r="N8" s="99" t="s">
+        <v>97</v>
+      </c>
+      <c r="O8" s="99" t="s">
         <v>98</v>
-      </c>
-      <c r="O8" s="99" t="s">
-        <v>99</v>
       </c>
       <c r="P8" s="99"/>
       <c r="Q8" s="15"/>
@@ -6323,40 +6386,40 @@
     </row>
     <row r="9" spans="1:18" ht="16.5">
       <c r="B9" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="98" t="s">
         <v>70</v>
       </c>
       <c r="E9" s="99" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F9" s="100" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" s="99" t="s">
         <v>92</v>
       </c>
-      <c r="G9" s="99" t="s">
-        <v>93</v>
-      </c>
       <c r="H9" s="104" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I9" s="104" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J9" s="99" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K9" s="99" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L9" s="99"/>
       <c r="M9" s="99"/>
       <c r="N9" s="99" t="s">
+        <v>97</v>
+      </c>
+      <c r="O9" s="99" t="s">
         <v>98</v>
-      </c>
-      <c r="O9" s="99" t="s">
-        <v>99</v>
       </c>
       <c r="P9" s="99"/>
       <c r="Q9" s="15"/>
@@ -6364,40 +6427,40 @@
     </row>
     <row r="10" spans="1:18" ht="16.5">
       <c r="B10" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="98" t="s">
         <v>70</v>
       </c>
       <c r="E10" s="99" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F10" s="100" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" s="99" t="s">
         <v>92</v>
       </c>
-      <c r="G10" s="99" t="s">
-        <v>93</v>
-      </c>
       <c r="H10" s="104" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I10" s="104" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J10" s="99" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K10" s="99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L10" s="99"/>
       <c r="M10" s="99"/>
       <c r="N10" s="99" t="s">
+        <v>97</v>
+      </c>
+      <c r="O10" s="99" t="s">
         <v>98</v>
-      </c>
-      <c r="O10" s="99" t="s">
-        <v>99</v>
       </c>
       <c r="P10" s="99"/>
       <c r="Q10" s="15"/>
@@ -6405,40 +6468,40 @@
     </row>
     <row r="11" spans="1:18" ht="16.5">
       <c r="B11" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="98" t="s">
         <v>70</v>
       </c>
       <c r="E11" s="99" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" s="100" t="s">
         <v>91</v>
       </c>
-      <c r="F11" s="100" t="s">
+      <c r="G11" s="99" t="s">
         <v>92</v>
       </c>
-      <c r="G11" s="99" t="s">
-        <v>93</v>
-      </c>
       <c r="H11" s="104" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I11" s="104" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J11" s="99" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K11" s="99" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L11" s="99"/>
       <c r="M11" s="99"/>
       <c r="N11" s="99" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O11" s="99" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P11" s="99"/>
       <c r="Q11" s="15"/>
@@ -6446,40 +6509,40 @@
     </row>
     <row r="12" spans="1:18" ht="16.5">
       <c r="B12" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="98" t="s">
         <v>70</v>
       </c>
       <c r="E12" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F12" s="100" t="s">
+        <v>91</v>
+      </c>
+      <c r="G12" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="F12" s="100" t="s">
-        <v>92</v>
-      </c>
-      <c r="G12" s="9" t="s">
+      <c r="H12" s="104" t="s">
+        <v>117</v>
+      </c>
+      <c r="I12" s="104" t="s">
+        <v>116</v>
+      </c>
+      <c r="J12" s="99" t="s">
+        <v>95</v>
+      </c>
+      <c r="K12" s="9" t="s">
         <v>138</v>
-      </c>
-      <c r="H12" s="104" t="s">
-        <v>118</v>
-      </c>
-      <c r="I12" s="104" t="s">
-        <v>117</v>
-      </c>
-      <c r="J12" s="99" t="s">
-        <v>96</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>139</v>
       </c>
       <c r="L12" s="9"/>
       <c r="M12" s="99"/>
       <c r="N12" s="99" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O12" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P12" s="11"/>
       <c r="Q12" s="9"/>
@@ -6487,40 +6550,40 @@
     </row>
     <row r="13" spans="1:18" ht="16.5">
       <c r="B13" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="98" t="s">
         <v>70</v>
       </c>
       <c r="E13" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F13" s="100" t="s">
+        <v>91</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="H13" s="104" t="s">
+        <v>117</v>
+      </c>
+      <c r="I13" s="104" t="s">
+        <v>116</v>
+      </c>
+      <c r="J13" s="99" t="s">
+        <v>95</v>
+      </c>
+      <c r="K13" s="9" t="s">
         <v>140</v>
-      </c>
-      <c r="F13" s="100" t="s">
-        <v>92</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="H13" s="104" t="s">
-        <v>118</v>
-      </c>
-      <c r="I13" s="104" t="s">
-        <v>117</v>
-      </c>
-      <c r="J13" s="99" t="s">
-        <v>96</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>141</v>
       </c>
       <c r="L13" s="9"/>
       <c r="M13" s="99"/>
       <c r="N13" s="99" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O13" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P13" s="11"/>
       <c r="Q13" s="9"/>
@@ -6528,44 +6591,44 @@
     </row>
     <row r="14" spans="1:18" s="101" customFormat="1" ht="33">
       <c r="B14" s="102" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C14" s="102" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D14" s="99" t="s">
         <v>70</v>
       </c>
       <c r="E14" s="99" t="s">
+        <v>168</v>
+      </c>
+      <c r="F14" s="102" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" s="103" t="s">
+        <v>92</v>
+      </c>
+      <c r="H14" s="104" t="s">
+        <v>117</v>
+      </c>
+      <c r="I14" s="104" t="s">
+        <v>173</v>
+      </c>
+      <c r="J14" s="99" t="s">
         <v>169</v>
-      </c>
-      <c r="F14" s="102" t="s">
-        <v>92</v>
-      </c>
-      <c r="G14" s="103" t="s">
-        <v>93</v>
-      </c>
-      <c r="H14" s="104" t="s">
-        <v>118</v>
-      </c>
-      <c r="I14" s="104" t="s">
-        <v>174</v>
-      </c>
-      <c r="J14" s="99" t="s">
-        <v>170</v>
       </c>
       <c r="K14" s="99"/>
       <c r="L14" s="99" t="s">
+        <v>170</v>
+      </c>
+      <c r="M14" s="99" t="s">
         <v>171</v>
       </c>
-      <c r="M14" s="99" t="s">
+      <c r="N14" s="99" t="s">
+        <v>97</v>
+      </c>
+      <c r="O14" s="99" t="s">
         <v>172</v>
-      </c>
-      <c r="N14" s="99" t="s">
-        <v>98</v>
-      </c>
-      <c r="O14" s="99" t="s">
-        <v>173</v>
       </c>
       <c r="P14" s="99"/>
       <c r="Q14" s="99"/>
@@ -6573,46 +6636,46 @@
     </row>
     <row r="15" spans="1:18" ht="33">
       <c r="B15" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D15" s="98" t="s">
         <v>70</v>
       </c>
       <c r="E15" s="99" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F15" s="100" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G15" s="99" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H15" s="99" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I15" s="99" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J15" s="99" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K15" s="99" t="s">
+        <v>96</v>
+      </c>
+      <c r="L15" s="99" t="s">
+        <v>124</v>
+      </c>
+      <c r="M15" s="99" t="s">
+        <v>145</v>
+      </c>
+      <c r="N15" s="99" t="s">
         <v>97</v>
       </c>
-      <c r="L15" s="99" t="s">
-        <v>125</v>
-      </c>
-      <c r="M15" s="99" t="s">
-        <v>146</v>
-      </c>
-      <c r="N15" s="99" t="s">
+      <c r="O15" s="99" t="s">
         <v>98</v>
-      </c>
-      <c r="O15" s="99" t="s">
-        <v>99</v>
       </c>
       <c r="P15" s="99"/>
       <c r="Q15" s="15"/>
@@ -6620,46 +6683,46 @@
     </row>
     <row r="16" spans="1:18" ht="33">
       <c r="B16" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D16" s="98" t="s">
         <v>70</v>
       </c>
       <c r="E16" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F16" s="100" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G16" s="99" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H16" s="99" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I16" s="99" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J16" s="99" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K16" s="99" t="s">
+        <v>100</v>
+      </c>
+      <c r="L16" s="99" t="s">
+        <v>125</v>
+      </c>
+      <c r="M16" s="99" t="s">
+        <v>146</v>
+      </c>
+      <c r="N16" s="99" t="s">
+        <v>97</v>
+      </c>
+      <c r="O16" s="99" t="s">
         <v>101</v>
-      </c>
-      <c r="L16" s="99" t="s">
-        <v>126</v>
-      </c>
-      <c r="M16" s="99" t="s">
-        <v>147</v>
-      </c>
-      <c r="N16" s="99" t="s">
-        <v>98</v>
-      </c>
-      <c r="O16" s="99" t="s">
-        <v>102</v>
       </c>
       <c r="P16" s="99"/>
       <c r="Q16" s="15"/>
@@ -6667,46 +6730,46 @@
     </row>
     <row r="17" spans="2:18" ht="33">
       <c r="B17" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D17" s="98" t="s">
         <v>70</v>
       </c>
       <c r="E17" s="99" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F17" s="100" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G17" s="99" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H17" s="99" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I17" s="99" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J17" s="99" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K17" s="99" t="s">
+        <v>102</v>
+      </c>
+      <c r="L17" s="99" t="s">
+        <v>126</v>
+      </c>
+      <c r="M17" s="99" t="s">
+        <v>147</v>
+      </c>
+      <c r="N17" s="99" t="s">
+        <v>97</v>
+      </c>
+      <c r="O17" s="99" t="s">
         <v>103</v>
-      </c>
-      <c r="L17" s="99" t="s">
-        <v>127</v>
-      </c>
-      <c r="M17" s="99" t="s">
-        <v>148</v>
-      </c>
-      <c r="N17" s="99" t="s">
-        <v>98</v>
-      </c>
-      <c r="O17" s="99" t="s">
-        <v>104</v>
       </c>
       <c r="P17" s="99"/>
       <c r="Q17" s="15"/>
@@ -6714,46 +6777,46 @@
     </row>
     <row r="18" spans="2:18" ht="33">
       <c r="B18" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D18" s="98" t="s">
         <v>70</v>
       </c>
       <c r="E18" s="99" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F18" s="100" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G18" s="99" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H18" s="99" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I18" s="99" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J18" s="99" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K18" s="99" t="s">
+        <v>104</v>
+      </c>
+      <c r="L18" s="99" t="s">
+        <v>127</v>
+      </c>
+      <c r="M18" s="99" t="s">
+        <v>148</v>
+      </c>
+      <c r="N18" s="99" t="s">
+        <v>97</v>
+      </c>
+      <c r="O18" s="99" t="s">
         <v>105</v>
-      </c>
-      <c r="L18" s="99" t="s">
-        <v>128</v>
-      </c>
-      <c r="M18" s="99" t="s">
-        <v>149</v>
-      </c>
-      <c r="N18" s="99" t="s">
-        <v>98</v>
-      </c>
-      <c r="O18" s="99" t="s">
-        <v>106</v>
       </c>
       <c r="P18" s="99"/>
       <c r="Q18" s="15"/>
@@ -6761,46 +6824,46 @@
     </row>
     <row r="19" spans="2:18" ht="33">
       <c r="B19" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D19" s="98" t="s">
         <v>70</v>
       </c>
       <c r="E19" s="99" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F19" s="100" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G19" s="99" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H19" s="99" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I19" s="99" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J19" s="99" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K19" s="99" t="s">
+        <v>106</v>
+      </c>
+      <c r="L19" s="99" t="s">
+        <v>128</v>
+      </c>
+      <c r="M19" s="99" t="s">
+        <v>149</v>
+      </c>
+      <c r="N19" s="99" t="s">
+        <v>97</v>
+      </c>
+      <c r="O19" s="99" t="s">
         <v>107</v>
-      </c>
-      <c r="L19" s="99" t="s">
-        <v>129</v>
-      </c>
-      <c r="M19" s="99" t="s">
-        <v>150</v>
-      </c>
-      <c r="N19" s="99" t="s">
-        <v>98</v>
-      </c>
-      <c r="O19" s="99" t="s">
-        <v>108</v>
       </c>
       <c r="P19" s="99"/>
       <c r="Q19" s="15"/>
@@ -6808,46 +6871,46 @@
     </row>
     <row r="20" spans="2:18" ht="33">
       <c r="B20" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D20" s="98" t="s">
         <v>70</v>
       </c>
       <c r="E20" s="99" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F20" s="100" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G20" s="99" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H20" s="99" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I20" s="99" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J20" s="99" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K20" s="99" t="s">
+        <v>108</v>
+      </c>
+      <c r="L20" s="99" t="s">
+        <v>129</v>
+      </c>
+      <c r="M20" s="99" t="s">
+        <v>150</v>
+      </c>
+      <c r="N20" s="99" t="s">
+        <v>97</v>
+      </c>
+      <c r="O20" s="99" t="s">
         <v>109</v>
-      </c>
-      <c r="L20" s="99" t="s">
-        <v>130</v>
-      </c>
-      <c r="M20" s="99" t="s">
-        <v>151</v>
-      </c>
-      <c r="N20" s="99" t="s">
-        <v>98</v>
-      </c>
-      <c r="O20" s="99" t="s">
-        <v>110</v>
       </c>
       <c r="P20" s="99"/>
       <c r="Q20" s="15"/>
@@ -6855,46 +6918,46 @@
     </row>
     <row r="21" spans="2:18" ht="33">
       <c r="B21" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D21" s="98" t="s">
         <v>70</v>
       </c>
       <c r="E21" s="99" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F21" s="100" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G21" s="99" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H21" s="99" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I21" s="99" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J21" s="99" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K21" s="99" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L21" s="99" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M21" s="99" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N21" s="99" t="s">
+        <v>97</v>
+      </c>
+      <c r="O21" s="99" t="s">
         <v>98</v>
-      </c>
-      <c r="O21" s="99" t="s">
-        <v>99</v>
       </c>
       <c r="P21" s="99"/>
       <c r="Q21" s="15"/>
@@ -6902,46 +6965,46 @@
     </row>
     <row r="22" spans="2:18" ht="33">
       <c r="B22" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D22" s="98" t="s">
         <v>70</v>
       </c>
       <c r="E22" s="99" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F22" s="100" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G22" s="99" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H22" s="99" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I22" s="99" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J22" s="99" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K22" s="99" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L22" s="99" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M22" s="99" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N22" s="99" t="s">
+        <v>97</v>
+      </c>
+      <c r="O22" s="99" t="s">
         <v>98</v>
-      </c>
-      <c r="O22" s="99" t="s">
-        <v>99</v>
       </c>
       <c r="P22" s="99"/>
       <c r="Q22" s="15"/>
@@ -6949,46 +7012,46 @@
     </row>
     <row r="23" spans="2:18" ht="33">
       <c r="B23" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D23" s="98" t="s">
         <v>70</v>
       </c>
       <c r="E23" s="99" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F23" s="100" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G23" s="99" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H23" s="99" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I23" s="99" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J23" s="99" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K23" s="99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L23" s="99" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M23" s="99" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N23" s="99" t="s">
+        <v>97</v>
+      </c>
+      <c r="O23" s="99" t="s">
         <v>98</v>
-      </c>
-      <c r="O23" s="99" t="s">
-        <v>99</v>
       </c>
       <c r="P23" s="99"/>
       <c r="Q23" s="15"/>
@@ -6996,46 +7059,46 @@
     </row>
     <row r="24" spans="2:18" ht="33">
       <c r="B24" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D24" s="98" t="s">
         <v>70</v>
       </c>
       <c r="E24" s="99" t="s">
+        <v>90</v>
+      </c>
+      <c r="F24" s="100" t="s">
         <v>91</v>
       </c>
-      <c r="F24" s="100" t="s">
-        <v>92</v>
-      </c>
       <c r="G24" s="99" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H24" s="99" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I24" s="99" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J24" s="99" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K24" s="99" t="s">
+        <v>114</v>
+      </c>
+      <c r="L24" s="99" t="s">
+        <v>133</v>
+      </c>
+      <c r="M24" s="99" t="s">
+        <v>154</v>
+      </c>
+      <c r="N24" s="99" t="s">
+        <v>97</v>
+      </c>
+      <c r="O24" s="99" t="s">
         <v>115</v>
-      </c>
-      <c r="L24" s="99" t="s">
-        <v>134</v>
-      </c>
-      <c r="M24" s="99" t="s">
-        <v>155</v>
-      </c>
-      <c r="N24" s="99" t="s">
-        <v>98</v>
-      </c>
-      <c r="O24" s="99" t="s">
-        <v>116</v>
       </c>
       <c r="P24" s="99"/>
       <c r="Q24" s="15"/>
@@ -7043,46 +7106,46 @@
     </row>
     <row r="25" spans="2:18" ht="33">
       <c r="B25" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D25" s="98" t="s">
         <v>70</v>
       </c>
       <c r="E25" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F25" s="100" t="s">
+        <v>91</v>
+      </c>
+      <c r="G25" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="F25" s="100" t="s">
-        <v>92</v>
-      </c>
-      <c r="G25" s="9" t="s">
+      <c r="H25" s="99" t="s">
+        <v>93</v>
+      </c>
+      <c r="I25" s="99" t="s">
+        <v>119</v>
+      </c>
+      <c r="J25" s="99" t="s">
+        <v>165</v>
+      </c>
+      <c r="K25" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="H25" s="99" t="s">
-        <v>94</v>
-      </c>
-      <c r="I25" s="99" t="s">
-        <v>120</v>
-      </c>
-      <c r="J25" s="99" t="s">
-        <v>166</v>
-      </c>
-      <c r="K25" s="9" t="s">
-        <v>139</v>
-      </c>
       <c r="L25" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M25" s="99" t="s">
+        <v>141</v>
+      </c>
+      <c r="N25" s="99" t="s">
+        <v>97</v>
+      </c>
+      <c r="O25" s="11" t="s">
         <v>142</v>
-      </c>
-      <c r="N25" s="99" t="s">
-        <v>98</v>
-      </c>
-      <c r="O25" s="11" t="s">
-        <v>143</v>
       </c>
       <c r="P25" s="6"/>
       <c r="Q25" s="6"/>
@@ -7090,46 +7153,46 @@
     </row>
     <row r="26" spans="2:18" ht="33">
       <c r="B26" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D26" s="98" t="s">
         <v>70</v>
       </c>
       <c r="E26" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F26" s="100" t="s">
+        <v>91</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="H26" s="99" t="s">
+        <v>93</v>
+      </c>
+      <c r="I26" s="99" t="s">
+        <v>119</v>
+      </c>
+      <c r="J26" s="99" t="s">
+        <v>166</v>
+      </c>
+      <c r="K26" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="F26" s="100" t="s">
-        <v>92</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="H26" s="99" t="s">
-        <v>94</v>
-      </c>
-      <c r="I26" s="99" t="s">
-        <v>120</v>
-      </c>
-      <c r="J26" s="99" t="s">
-        <v>167</v>
-      </c>
-      <c r="K26" s="9" t="s">
-        <v>141</v>
-      </c>
       <c r="L26" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M26" s="99" t="s">
+        <v>143</v>
+      </c>
+      <c r="N26" s="99" t="s">
+        <v>97</v>
+      </c>
+      <c r="O26" s="11" t="s">
         <v>144</v>
-      </c>
-      <c r="N26" s="99" t="s">
-        <v>98</v>
-      </c>
-      <c r="O26" s="11" t="s">
-        <v>145</v>
       </c>
       <c r="P26" s="6"/>
       <c r="Q26" s="6"/>
@@ -7142,7 +7205,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7342,7 +7405,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7656,7 +7719,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7970,7 +8033,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8284,7 +8347,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8600,7 +8663,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
